--- a/WebElement/Excel/CreatePageAndElements.xlsx
+++ b/WebElement/Excel/CreatePageAndElements.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="121">
   <si>
     <t>SubPage Of (Right Click on this Page)</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>Text Field</t>
+  </si>
+  <si>
+    <t>Rename1</t>
   </si>
 </sst>
 </file>
@@ -769,8 +772,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1413,7 +1416,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>42</v>
@@ -1439,7 +1442,7 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>45</v>
@@ -1465,7 +1468,7 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>59</v>
@@ -1491,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>55</v>
@@ -1517,7 +1520,7 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>62</v>
